--- a/tool/flask_lda_function_names.xlsx
+++ b/tool/flask_lda_function_names.xlsx
@@ -1769,7 +1769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1791,6 +1791,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1835,8 +1841,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1859,14 +1869,14 @@
   </sheetPr>
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A286" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="98.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
@@ -3312,14 +3322,14 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>5319</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>263</v>
       </c>
     </row>
